--- a/sputnik/personal/ee/167ee.xlsx
+++ b/sputnik/personal/ee/167ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -576,34 +576,136 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6" t="s">
-        <v>9</v>
+      <c r="A6" s="4">
+        <v>44257</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>846</v>
+      </c>
+      <c r="D6" s="3">
+        <f>C6-C4</f>
+        <v>647</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="6">
+        <f>D6*E6</f>
+        <v>3047.37</v>
       </c>
       <c r="G6" s="9">
-        <f>SUM(G2:G5)</f>
-        <v>1103.04</v>
+        <f>SUM(F6,F7)</f>
+        <v>3616.02</v>
       </c>
       <c r="H6" s="9">
-        <f>SUM(H2:H5)</f>
-        <v>1051.46</v>
+        <v>3446.92</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>288</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7-C5</f>
+        <v>223</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="6">
+        <f>D7*E7</f>
+        <v>568.65</v>
+      </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="9">
-        <f>SUM(H6,-G6)</f>
-        <v>-51.579999999999927</v>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44306</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1386</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C8-C6</f>
+        <v>540</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="6">
+        <f>D8*E8</f>
+        <v>2543.4</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(F8,F9)</f>
+        <v>2982</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2842.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>460</v>
+      </c>
+      <c r="D9" s="3">
+        <f>C9-C7</f>
+        <v>172</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="6">
+        <f>D9*E9</f>
+        <v>438.59999999999997</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(G2:G9)</f>
+        <v>7701.0599999999995</v>
+      </c>
+      <c r="H10" s="9">
+        <f>SUM(H2:H9)</f>
+        <v>7340.9400000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <f>SUM(H10,-G10)</f>
+        <v>-360.11999999999898</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/167ee.xlsx
+++ b/sputnik/personal/ee/167ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -542,7 +542,7 @@
         <v>4.71</v>
       </c>
       <c r="F4" s="6">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
         <v>937.29</v>
       </c>
       <c r="G4" s="9">
@@ -569,7 +569,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="6">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>165.75</v>
       </c>
       <c r="G5" s="9"/>
@@ -593,7 +593,7 @@
         <v>4.71</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>3047.37</v>
       </c>
       <c r="G6" s="9">
@@ -620,7 +620,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>568.65</v>
       </c>
       <c r="G7" s="9"/>
@@ -644,7 +644,7 @@
         <v>4.71</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>2543.4</v>
       </c>
       <c r="G8" s="9">
@@ -671,41 +671,92 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>438.59999999999997</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6" t="s">
-        <v>9</v>
+      <c r="A10" s="4">
+        <v>44354</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1741</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10-C8</f>
+        <v>355</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10:F11" si="1">D10*E10</f>
+        <v>1672.05</v>
       </c>
       <c r="G10" s="9">
-        <f>SUM(G2:G9)</f>
-        <v>7701.0599999999995</v>
+        <f>SUM(F10,F11)</f>
+        <v>1901.55</v>
       </c>
       <c r="H10" s="9">
-        <f>SUM(H2:H9)</f>
-        <v>7340.9400000000005</v>
+        <v>1812.68</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>550</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11-C9</f>
+        <v>90</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>229.49999999999997</v>
+      </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9">
-        <f>SUM(H10,-G10)</f>
-        <v>-360.11999999999898</v>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(G2:G11)</f>
+        <v>9602.6099999999988</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUM(H2:H11)</f>
+        <v>9153.6200000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <f>SUM(H12,-G12)</f>
+        <v>-448.98999999999796</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/167ee.xlsx
+++ b/sputnik/personal/ee/167ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
         <v>65</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C3</f>
+        <f t="shared" ref="D5:D13" si="1">C5-C3</f>
         <v>65</v>
       </c>
       <c r="E5" s="8">
@@ -586,7 +586,7 @@
         <v>846</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C4</f>
+        <f t="shared" si="1"/>
         <v>647</v>
       </c>
       <c r="E6" s="8">
@@ -613,7 +613,7 @@
         <v>288</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C5</f>
+        <f t="shared" si="1"/>
         <v>223</v>
       </c>
       <c r="E7" s="8">
@@ -637,7 +637,7 @@
         <v>1386</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C6</f>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="E8" s="8">
@@ -664,7 +664,7 @@
         <v>460</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C7</f>
+        <f t="shared" si="1"/>
         <v>172</v>
       </c>
       <c r="E9" s="8">
@@ -688,14 +688,14 @@
         <v>1741</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-C8</f>
+        <f t="shared" si="1"/>
         <v>355</v>
       </c>
       <c r="E10" s="8">
         <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:F11" si="1">D10*E10</f>
+        <f t="shared" ref="F10:F11" si="2">D10*E10</f>
         <v>1672.05</v>
       </c>
       <c r="G10" s="9">
@@ -715,48 +715,147 @@
         <v>550</v>
       </c>
       <c r="D11" s="3">
-        <f>C11-C9</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="E11" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>229.49999999999997</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6" t="s">
-        <v>9</v>
+      <c r="A12" s="4">
+        <v>44396</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2126</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>385</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:F13" si="3">D12*E12</f>
+        <v>1909.6</v>
       </c>
       <c r="G12" s="9">
-        <f>SUM(G2:G11)</f>
-        <v>9602.6099999999988</v>
+        <f>SUM(F12,F13)</f>
+        <v>2244.6</v>
       </c>
       <c r="H12" s="9">
-        <f>SUM(H2:H11)</f>
-        <v>9153.6200000000008</v>
+        <v>2032.4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>675</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="3"/>
+        <v>335</v>
+      </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9">
-        <f>SUM(H12,-G12)</f>
-        <v>-448.98999999999796</v>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44403</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:F15" si="4">D14*E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(F14,F15)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>661.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(G2:G15)</f>
+        <v>11847.21</v>
+      </c>
+      <c r="H16" s="9">
+        <f>SUM(H2:H15)</f>
+        <v>11847.210000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
+        <f>SUM(H16,-G16)</f>
+        <v>1.8189894035458565E-12</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/167ee.xlsx
+++ b/sputnik/personal/ee/167ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -796,7 +796,7 @@
         <v>4.96</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" ref="F14:F15" si="4">D14*E14</f>
+        <f t="shared" ref="F14" si="4">D14*E14</f>
         <v>0</v>
       </c>
       <c r="G14" s="9">
@@ -828,34 +828,83 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6" t="s">
-        <v>9</v>
+      <c r="A16" s="4">
+        <v>44461</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2721</v>
+      </c>
+      <c r="D16" s="3">
+        <v>595</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="5">D16*E16</f>
+        <v>2951.2</v>
       </c>
       <c r="G16" s="9">
-        <f>SUM(G2:G15)</f>
-        <v>11847.21</v>
+        <f>SUM(F16,F17)</f>
+        <v>3430.92</v>
       </c>
       <c r="H16" s="9">
-        <f>SUM(H2:H15)</f>
-        <v>11847.210000000001</v>
+        <v>3106.52</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>854</v>
+      </c>
+      <c r="D17" s="3">
+        <v>179</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="5"/>
+        <v>479.72</v>
+      </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="9">
-        <f>SUM(H16,-G16)</f>
-        <v>1.8189894035458565E-12</v>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(G2:G17)</f>
+        <v>15278.13</v>
+      </c>
+      <c r="H18" s="9">
+        <f>SUM(H2:H17)</f>
+        <v>14953.730000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <f>SUM(H18,-G18)</f>
+        <v>-324.39999999999782</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/167ee.xlsx
+++ b/sputnik/personal/ee/167ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F30" sqref="F30:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -877,34 +877,85 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6" t="s">
-        <v>9</v>
+      <c r="A18" s="4">
+        <v>44508</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3171</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(C18,-C16)</f>
+        <v>450</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="6">D18*E18</f>
+        <v>2232</v>
       </c>
       <c r="G18" s="9">
-        <f>SUM(G2:G17)</f>
-        <v>15278.13</v>
+        <f>SUM(F18,F19)</f>
+        <v>2516.08</v>
       </c>
       <c r="H18" s="9">
-        <f>SUM(H2:H17)</f>
-        <v>14953.730000000001</v>
+        <v>2278.08</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>960</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM(C19,-C17)</f>
+        <v>106</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="6"/>
+        <v>284.08000000000004</v>
+      </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="9">
-        <f>SUM(H18,-G18)</f>
-        <v>-324.39999999999782</v>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="9">
+        <f>SUM(G2:G19)</f>
+        <v>17794.21</v>
+      </c>
+      <c r="H20" s="9">
+        <f>SUM(H2:H19)</f>
+        <v>17231.810000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9">
+        <f>SUM(H20,-G20)</f>
+        <v>-562.39999999999782</v>
       </c>
     </row>
   </sheetData>
